--- a/OOXML/test/ExampleFiles/xlsb2xlsx/simple1.xlsx
+++ b/OOXML/test/ExampleFiles/xlsb2xlsx/simple1.xlsx
@@ -311,7 +311,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView windowProtection="0" showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" showWhiteSpace="0" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" workbookViewId="0">
+    <sheetView windowProtection="0" showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" showWhiteSpace="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" workbookViewId="0">
       <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
